--- a/Desarrollo/RP/Gestion/RP-CP.xlsx
+++ b/Desarrollo/RP/Gestion/RP-CP.xlsx
@@ -1397,7 +1397,7 @@
         <v>45404.0</v>
       </c>
       <c r="J18" s="32">
-        <v>45407.0</v>
+        <v>45410.0</v>
       </c>
       <c r="K18" s="45">
         <v>1.0</v>
@@ -1424,7 +1424,7 @@
         <v>45404.0</v>
       </c>
       <c r="J19" s="32">
-        <v>45407.0</v>
+        <v>45410.0</v>
       </c>
       <c r="K19" s="45">
         <v>1.0</v>
@@ -1451,7 +1451,7 @@
         <v>45404.0</v>
       </c>
       <c r="J20" s="32">
-        <v>45407.0</v>
+        <v>45410.0</v>
       </c>
       <c r="K20" s="45">
         <v>1.0</v>
@@ -1478,7 +1478,7 @@
         <v>45404.0</v>
       </c>
       <c r="J21" s="32">
-        <v>45407.0</v>
+        <v>45410.0</v>
       </c>
       <c r="K21" s="45">
         <v>1.0</v>
@@ -1505,7 +1505,7 @@
         <v>45404.0</v>
       </c>
       <c r="J22" s="32">
-        <v>45407.0</v>
+        <v>45410.0</v>
       </c>
       <c r="K22" s="45">
         <v>1.0</v>
@@ -1532,7 +1532,7 @@
         <v>45404.0</v>
       </c>
       <c r="J23" s="32">
-        <v>45407.0</v>
+        <v>45410.0</v>
       </c>
       <c r="K23" s="45">
         <v>1.0</v>
@@ -1559,7 +1559,7 @@
         <v>45404.0</v>
       </c>
       <c r="J24" s="32">
-        <v>45407.0</v>
+        <v>45410.0</v>
       </c>
       <c r="K24" s="45">
         <v>1.0</v>
@@ -1586,7 +1586,7 @@
         <v>45404.0</v>
       </c>
       <c r="J25" s="32">
-        <v>45407.0</v>
+        <v>45410.0</v>
       </c>
       <c r="K25" s="45">
         <v>1.0</v>
@@ -1616,7 +1616,7 @@
         <v>45404</v>
       </c>
       <c r="J26" s="32">
-        <v>45407.0</v>
+        <v>45410.0</v>
       </c>
       <c r="K26" s="45">
         <v>1.0</v>
@@ -1639,11 +1639,11 @@
       <c r="H27" s="31"/>
       <c r="I27" s="38">
         <f>J26</f>
-        <v>45407</v>
+        <v>45410</v>
       </c>
       <c r="J27" s="38">
         <f>I27+5</f>
-        <v>45412</v>
+        <v>45415</v>
       </c>
       <c r="K27" s="52">
         <v>0.0</v>
@@ -1670,11 +1670,11 @@
       </c>
       <c r="I28" s="38">
         <f>J26+1</f>
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="J28" s="38">
         <f t="shared" ref="J28:J29" si="1">I28+3</f>
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="K28" s="52">
         <v>0.0</v>
@@ -1701,11 +1701,11 @@
       </c>
       <c r="I29" s="38">
         <f>J26+1</f>
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="J29" s="38">
         <f t="shared" si="1"/>
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="K29" s="52">
         <v>0.0</v>
@@ -1728,11 +1728,11 @@
       <c r="H30" s="31"/>
       <c r="I30" s="38">
         <f>J26+1</f>
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="J30" s="38">
         <f>I30+4</f>
-        <v>45412</v>
+        <v>45415</v>
       </c>
       <c r="K30" s="52">
         <v>0.0</v>
@@ -1759,11 +1759,11 @@
       </c>
       <c r="I31" s="38">
         <f>J30+3</f>
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="J31" s="38">
         <f>I31+3</f>
-        <v>45418</v>
+        <v>45421</v>
       </c>
       <c r="K31" s="52">
         <v>0.0</v>
@@ -1788,11 +1788,11 @@
       <c r="H32" s="31"/>
       <c r="I32" s="38">
         <f t="shared" ref="I32:I33" si="2">J31</f>
-        <v>45418</v>
+        <v>45421</v>
       </c>
       <c r="J32" s="38">
         <f t="shared" ref="J32:J33" si="3">I32</f>
-        <v>45418</v>
+        <v>45421</v>
       </c>
       <c r="K32" s="52">
         <v>0.0</v>
@@ -1817,11 +1817,11 @@
       <c r="H33" s="31"/>
       <c r="I33" s="38">
         <f t="shared" si="2"/>
-        <v>45418</v>
+        <v>45421</v>
       </c>
       <c r="J33" s="38">
         <f t="shared" si="3"/>
-        <v>45418</v>
+        <v>45421</v>
       </c>
       <c r="K33" s="52">
         <v>0.0</v>
@@ -1867,11 +1867,11 @@
       </c>
       <c r="I35" s="38">
         <f>J33+1</f>
-        <v>45419</v>
+        <v>45422</v>
       </c>
       <c r="J35" s="38">
         <f>I35+6</f>
-        <v>45425</v>
+        <v>45428</v>
       </c>
       <c r="K35" s="52">
         <v>0.0</v>
@@ -1900,11 +1900,11 @@
       </c>
       <c r="I36" s="38">
         <f>J33+1</f>
-        <v>45419</v>
+        <v>45422</v>
       </c>
       <c r="J36" s="38">
         <f>I36+10</f>
-        <v>45429</v>
+        <v>45432</v>
       </c>
       <c r="K36" s="52">
         <v>0.0</v>
@@ -1931,11 +1931,11 @@
       <c r="H37" s="31"/>
       <c r="I37" s="38">
         <f>I35+3</f>
-        <v>45422</v>
+        <v>45425</v>
       </c>
       <c r="J37" s="38">
         <f>I37+4</f>
-        <v>45426</v>
+        <v>45429</v>
       </c>
       <c r="K37" s="52">
         <v>0.0</v>
@@ -1962,11 +1962,11 @@
       <c r="H38" s="30"/>
       <c r="I38" s="38">
         <f>J33+1</f>
-        <v>45419</v>
+        <v>45422</v>
       </c>
       <c r="J38" s="38">
-        <f>I38+8</f>
-        <v>45427</v>
+        <f>I38+4</f>
+        <v>45426</v>
       </c>
       <c r="K38" s="52">
         <v>0.0</v>
@@ -1993,11 +1993,11 @@
       <c r="H39" s="31"/>
       <c r="I39" s="38">
         <f t="shared" ref="I39:I40" si="4">J38</f>
-        <v>45427</v>
+        <v>45426</v>
       </c>
       <c r="J39" s="38">
         <f>I39+5</f>
-        <v>45432</v>
+        <v>45431</v>
       </c>
       <c r="K39" s="52">
         <v>0.0</v>
@@ -2024,11 +2024,11 @@
       <c r="H40" s="31"/>
       <c r="I40" s="38">
         <f t="shared" si="4"/>
-        <v>45432</v>
+        <v>45431</v>
       </c>
       <c r="J40" s="38">
         <f>I40+7</f>
-        <v>45439</v>
+        <v>45438</v>
       </c>
       <c r="K40" s="52">
         <v>0.0</v>
@@ -2055,11 +2055,11 @@
       <c r="H41" s="30"/>
       <c r="I41" s="38">
         <f>I40+3</f>
-        <v>45435</v>
+        <v>45434</v>
       </c>
       <c r="J41" s="38">
         <f>I41+6</f>
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="K41" s="52">
         <v>0.0</v>
@@ -2088,11 +2088,11 @@
       </c>
       <c r="I42" s="38">
         <f>J41+1</f>
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="J42" s="38">
         <f>I42+4</f>
-        <v>45446</v>
+        <v>45445</v>
       </c>
       <c r="K42" s="52">
         <v>0.0</v>
@@ -2119,11 +2119,11 @@
       <c r="H43" s="31"/>
       <c r="I43" s="38">
         <f>J41</f>
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="J43" s="38">
         <f t="shared" ref="J43:J44" si="5">I43+2</f>
-        <v>45443</v>
+        <v>45442</v>
       </c>
       <c r="K43" s="52">
         <v>0.0</v>
@@ -2148,11 +2148,11 @@
       <c r="H44" s="31"/>
       <c r="I44" s="38">
         <f t="shared" ref="I44:I45" si="6">J43+1</f>
-        <v>45444</v>
+        <v>45443</v>
       </c>
       <c r="J44" s="38">
         <f t="shared" si="5"/>
-        <v>45446</v>
+        <v>45445</v>
       </c>
       <c r="K44" s="52">
         <v>0.0</v>
@@ -2177,11 +2177,11 @@
       <c r="H45" s="59"/>
       <c r="I45" s="60">
         <f t="shared" si="6"/>
-        <v>45447</v>
+        <v>45446</v>
       </c>
       <c r="J45" s="60">
         <f>I45</f>
-        <v>45447</v>
+        <v>45446</v>
       </c>
       <c r="K45" s="52">
         <v>0.0</v>
@@ -2221,11 +2221,11 @@
       <c r="H47" s="61"/>
       <c r="I47" s="62">
         <f>J45+1</f>
-        <v>45448</v>
+        <v>45447</v>
       </c>
       <c r="J47" s="62">
         <f t="shared" ref="J47:J51" si="7">I47</f>
-        <v>45448</v>
+        <v>45447</v>
       </c>
       <c r="K47" s="52">
         <v>0.0</v>
@@ -2250,11 +2250,11 @@
       <c r="H48" s="61"/>
       <c r="I48" s="62">
         <f t="shared" ref="I48:I51" si="8">J47+1</f>
-        <v>45449</v>
+        <v>45448</v>
       </c>
       <c r="J48" s="62">
         <f t="shared" si="7"/>
-        <v>45449</v>
+        <v>45448</v>
       </c>
       <c r="K48" s="52">
         <v>0.0</v>
@@ -2277,11 +2277,11 @@
       <c r="H49" s="61"/>
       <c r="I49" s="62">
         <f t="shared" si="8"/>
-        <v>45450</v>
+        <v>45449</v>
       </c>
       <c r="J49" s="62">
         <f t="shared" si="7"/>
-        <v>45450</v>
+        <v>45449</v>
       </c>
       <c r="K49" s="52">
         <v>0.0</v>
@@ -2306,11 +2306,11 @@
       <c r="H50" s="61"/>
       <c r="I50" s="62">
         <f t="shared" si="8"/>
-        <v>45451</v>
+        <v>45450</v>
       </c>
       <c r="J50" s="62">
         <f t="shared" si="7"/>
-        <v>45451</v>
+        <v>45450</v>
       </c>
       <c r="K50" s="52">
         <v>0.0</v>
@@ -2335,11 +2335,11 @@
       <c r="H51" s="61"/>
       <c r="I51" s="62">
         <f t="shared" si="8"/>
-        <v>45452</v>
+        <v>45451</v>
       </c>
       <c r="J51" s="62">
         <f t="shared" si="7"/>
-        <v>45452</v>
+        <v>45451</v>
       </c>
       <c r="K51" s="52">
         <v>0.0</v>
@@ -2368,11 +2368,11 @@
       </c>
       <c r="I52" s="38">
         <f>J49+1</f>
-        <v>45451</v>
+        <v>45450</v>
       </c>
       <c r="J52" s="38">
         <f>I52+3</f>
-        <v>45454</v>
+        <v>45453</v>
       </c>
       <c r="K52" s="52">
         <v>0.0</v>
@@ -2401,11 +2401,11 @@
       </c>
       <c r="I53" s="62">
         <f>J50</f>
-        <v>45451</v>
+        <v>45450</v>
       </c>
       <c r="J53" s="62">
         <f t="shared" ref="J53:J54" si="9">I53+2</f>
-        <v>45453</v>
+        <v>45452</v>
       </c>
       <c r="K53" s="52">
         <v>0.0</v>
@@ -2430,11 +2430,11 @@
       <c r="H54" s="61"/>
       <c r="I54" s="62">
         <f t="shared" ref="I54:I55" si="10">J53+1</f>
-        <v>45454</v>
+        <v>45453</v>
       </c>
       <c r="J54" s="62">
         <f t="shared" si="9"/>
-        <v>45456</v>
+        <v>45455</v>
       </c>
       <c r="K54" s="52">
         <v>0.0</v>
@@ -2459,11 +2459,11 @@
       <c r="H55" s="31"/>
       <c r="I55" s="38">
         <f t="shared" si="10"/>
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="J55" s="38">
         <f>I55</f>
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="K55" s="52">
         <v>0.0</v>
@@ -2509,11 +2509,11 @@
       </c>
       <c r="I57" s="38">
         <f>J55</f>
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="J57" s="38">
         <f t="shared" ref="J57:J58" si="11">I57+2</f>
-        <v>45459</v>
+        <v>45458</v>
       </c>
       <c r="K57" s="52">
         <v>0.0</v>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="I58" s="38">
         <f>J55</f>
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="J58" s="38">
         <f t="shared" si="11"/>
-        <v>45459</v>
+        <v>45458</v>
       </c>
       <c r="K58" s="52">
         <v>0.0</v>
@@ -2571,11 +2571,11 @@
       <c r="H59" s="31"/>
       <c r="I59" s="38">
         <f t="shared" ref="I59:I60" si="12">J58+1</f>
-        <v>45460</v>
+        <v>45459</v>
       </c>
       <c r="J59" s="38">
         <f>I59+1</f>
-        <v>45461</v>
+        <v>45460</v>
       </c>
       <c r="K59" s="52">
         <v>0.0</v>
@@ -2600,11 +2600,11 @@
       <c r="H60" s="31"/>
       <c r="I60" s="38">
         <f t="shared" si="12"/>
-        <v>45462</v>
+        <v>45461</v>
       </c>
       <c r="J60" s="38">
         <f>I60+3</f>
-        <v>45465</v>
+        <v>45464</v>
       </c>
       <c r="K60" s="52">
         <v>0.0</v>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="D63" s="65">
         <f>J33</f>
-        <v>45418</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="D64" s="66">
         <f>J45</f>
-        <v>45447</v>
+        <v>45446</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="D65" s="66">
         <f>J55</f>
-        <v>45457</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">

--- a/Desarrollo/RP/Gestion/RP-CP.xlsx
+++ b/Desarrollo/RP/Gestion/RP-CP.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="SGiZJzvVDS9tFpf+6qIBkGma8k0w2w4Kc9oPkFL/E50="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="8ChTKC8RMX4OptDxnCtVr9rGm3OV5kfcsnlO/K+a5i4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="150">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Jefe de proyecto/ Analista QA</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>JP/QA</t>
   </si>
   <si>
     <t xml:space="preserve">Grupo:   </t>
@@ -118,6 +118,15 @@
     <t>UX/UI</t>
   </si>
   <si>
+    <t>Cancio Bedon, Alex</t>
+  </si>
+  <si>
+    <t>Analista funcional</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
     <t>Benites Meza, Marcos</t>
   </si>
   <si>
@@ -166,37 +175,46 @@
     <t>Documento de Project Charter</t>
   </si>
   <si>
-    <t>RP-PC</t>
+    <t>RP-PC.docx</t>
+  </si>
+  <si>
+    <t>Castillo/JP</t>
+  </si>
+  <si>
+    <t>Elaboración del cronograma del proyecto</t>
+  </si>
+  <si>
+    <t>Cronograma del proyecto</t>
+  </si>
+  <si>
+    <t>RP-CP.xlsx</t>
+  </si>
+  <si>
+    <t>Cueva/PF</t>
+  </si>
+  <si>
+    <t>Elaboracion de documento de negocio</t>
+  </si>
+  <si>
+    <t>Documento de Negocios</t>
+  </si>
+  <si>
+    <t>RP-DN.docx</t>
   </si>
   <si>
     <t>Equipo de desarrollo</t>
   </si>
   <si>
-    <t>Elaboración del cronograma del proyecto</t>
-  </si>
-  <si>
-    <t>Cronograma del proyecto</t>
-  </si>
-  <si>
-    <t>RP-CP</t>
-  </si>
-  <si>
-    <t>Elaboracion de documento de negocio</t>
-  </si>
-  <si>
-    <t>Documento de Negocios</t>
-  </si>
-  <si>
-    <t>RP-DN</t>
-  </si>
-  <si>
     <t>Definición de requisitos</t>
   </si>
   <si>
     <t>Documento de Elicitación de Requisitos</t>
   </si>
   <si>
-    <t>RP-DELR</t>
+    <t>RP-DER.xlsx</t>
+  </si>
+  <si>
+    <t>Cancio/AF</t>
   </si>
   <si>
     <t>Estructuración de proyecto en GitHub</t>
@@ -205,202 +223,217 @@
     <t>-</t>
   </si>
   <si>
-    <t>Cueva/PF</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Especificar Requisito 1 - Reportar suceso</t>
   </si>
   <si>
-    <t>Documento de Especificacion de Requisito</t>
+    <t>Documento de Especificacion de Requisito 1</t>
+  </si>
+  <si>
+    <t>RP-DER1.docx</t>
   </si>
   <si>
     <t>RP-DER1</t>
   </si>
   <si>
-    <t>RP-ER1.docx</t>
-  </si>
-  <si>
     <t>Chaco/UX</t>
   </si>
   <si>
     <t>Especificar Requisito 2 - Ver mis reportes</t>
   </si>
   <si>
-    <t>RP-DER2</t>
+    <t>Documento de Especificacion de Requisito 2</t>
+  </si>
+  <si>
+    <t>RP-DER2.docx</t>
   </si>
   <si>
     <t>Especificar Requisito 3 - Mostrar mapa de seguridad</t>
   </si>
   <si>
-    <t>RP-DER3</t>
+    <t>Documento de Especificacion de Requisito 3</t>
+  </si>
+  <si>
+    <t>RP-DER3.docx</t>
+  </si>
+  <si>
+    <t>Benites/PF</t>
+  </si>
+  <si>
+    <t>Especificar Requisito 4 - Visualizar reportes guardados</t>
+  </si>
+  <si>
+    <t>Documento de Especificacion de Requisito 4</t>
+  </si>
+  <si>
+    <t>RP-DER4.docx</t>
+  </si>
+  <si>
+    <t>Especificar Requisito 5 - Buscar reporte</t>
+  </si>
+  <si>
+    <t>Documento de Especificacion de Requisito 5</t>
+  </si>
+  <si>
+    <t>RP-DER5.docx</t>
+  </si>
+  <si>
+    <t>Velarde/DBA</t>
+  </si>
+  <si>
+    <t>Especificar Requisito 6 - Mostrar contactos seguros</t>
+  </si>
+  <si>
+    <t>Documento de Especificacion de Requisito 6</t>
+  </si>
+  <si>
+    <t>RP-DER6.docx</t>
+  </si>
+  <si>
+    <t>Montes/PB</t>
+  </si>
+  <si>
+    <t>Especificar Requisito 7 - Buscar contacto</t>
+  </si>
+  <si>
+    <t>Documento de Especificacion de Requisito 7</t>
+  </si>
+  <si>
+    <t>RP-DER7.docx</t>
+  </si>
+  <si>
+    <t>Especificar Requisito 8 - Iniciar Denuncia</t>
+  </si>
+  <si>
+    <t>Documento de Especificacion de Requisito 8</t>
+  </si>
+  <si>
+    <t>RP-DER8.docx</t>
+  </si>
+  <si>
+    <t>Lipa/AS</t>
+  </si>
+  <si>
+    <t>Verificación y revisión de documentación</t>
+  </si>
+  <si>
+    <t>Refinamiento de los Requisitos</t>
+  </si>
+  <si>
+    <t>Diseño de Arquitectura</t>
+  </si>
+  <si>
+    <t>Documento de Diseño arquitectónico</t>
+  </si>
+  <si>
+    <t>RP-DDA.docx</t>
+  </si>
+  <si>
+    <t>Diseño UX/UI</t>
+  </si>
+  <si>
+    <t>Documento de Diseño de Interfaz</t>
+  </si>
+  <si>
+    <t>RP-DDI.docx</t>
+  </si>
+  <si>
+    <t>Diseño de Base de datos</t>
+  </si>
+  <si>
+    <t>Documento de Especificacion de la base de datos</t>
+  </si>
+  <si>
+    <t>RP-DEBD.docx</t>
+  </si>
+  <si>
+    <t>Refinamiento de diseño de interfaz</t>
+  </si>
+  <si>
+    <t>Documento de Diseño de interfaz</t>
   </si>
   <si>
     <t>Velarde/PF</t>
   </si>
   <si>
-    <t>Especificar Requisito 4 - Visualizar reportes guardados</t>
-  </si>
-  <si>
-    <t>RP-DER4</t>
-  </si>
-  <si>
-    <t>Montes/PB</t>
-  </si>
-  <si>
-    <t>Especificar Requisito 5 - Buscar reporte</t>
-  </si>
-  <si>
-    <t>RP-DER5</t>
-  </si>
-  <si>
-    <t>Benites/PF</t>
-  </si>
-  <si>
-    <t>Especificar Requisito 6 - Mostrar contactos seguros</t>
-  </si>
-  <si>
-    <t>RP-DER6</t>
-  </si>
-  <si>
-    <t>Especificar Requisito 7 - Buscar contacto</t>
-  </si>
-  <si>
-    <t>RP-DER7</t>
-  </si>
-  <si>
-    <t>Castillo/JP</t>
-  </si>
-  <si>
-    <t>Especificar Requisito 8 - Iniciar Denuncia</t>
-  </si>
-  <si>
-    <t>RP-DER8</t>
-  </si>
-  <si>
-    <t>Lipa/AS</t>
-  </si>
-  <si>
-    <t>Verificación y revisión de documentación</t>
-  </si>
-  <si>
-    <t>Documento de Revisión de Requisitos</t>
-  </si>
-  <si>
-    <t>Refinamiento de los Requisitos</t>
-  </si>
-  <si>
-    <t>Diseño de Arquitectura</t>
-  </si>
-  <si>
-    <t>Documento de Diseño Arquitectónico</t>
-  </si>
-  <si>
-    <t>Velarde/DBA</t>
+    <t>Sprint Retrospective 1</t>
+  </si>
+  <si>
+    <t>Generar Baseline 01</t>
+  </si>
+  <si>
+    <t>Carpeta Línea Base 01</t>
+  </si>
+  <si>
+    <t>Hito 01</t>
+  </si>
+  <si>
+    <t>Implementación</t>
+  </si>
+  <si>
+    <t>Implementacion de requisito 1 - Reportar suceso</t>
+  </si>
+  <si>
+    <t>Carpeta Código</t>
+  </si>
+  <si>
+    <t>Implementación de requisito 2 -Ver mis reportes</t>
+  </si>
+  <si>
+    <t>Implementación de requisito 3 -Mostrar mapa de  seguridad</t>
+  </si>
+  <si>
+    <t>Implementación de requisito 4 -Visualizar reportes guardados</t>
+  </si>
+  <si>
+    <t>Implementación de requisito 5 -Buscar reporte</t>
+  </si>
+  <si>
+    <t>Implementación de requisito 6 -Mostrar contactos seguros</t>
+  </si>
+  <si>
+    <t>Implementación de requisito 7 -Buscar contacto</t>
+  </si>
+  <si>
+    <t>Implementación de requisito 8 -Iniciar denuncia</t>
+  </si>
+  <si>
+    <t>Sprint Retrospective 2</t>
+  </si>
+  <si>
+    <t>Generar Baseline 02</t>
+  </si>
+  <si>
+    <t>Carpeta Línea Base 02</t>
+  </si>
+  <si>
+    <t>Hito 02</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Pruebas de Experiencia de Usuario</t>
+  </si>
+  <si>
+    <t>Documento de Protocolo de Pruebas</t>
+  </si>
+  <si>
+    <t>RP-DPP.docx</t>
   </si>
   <si>
     <t>Castillo/QA</t>
   </si>
   <si>
-    <t>Diseño UX/UI</t>
-  </si>
-  <si>
-    <t>Documento de Diseño de Interfaz de Sitioweb</t>
-  </si>
-  <si>
-    <t>Diseño de Base de Datos</t>
-  </si>
-  <si>
-    <t>Modelo de Base de Datos</t>
-  </si>
-  <si>
-    <t>Refinamiento de diseño de interfaz</t>
-  </si>
-  <si>
-    <t>Documento de Diseño de Interfaz</t>
-  </si>
-  <si>
-    <t>Sprint Retrospective 1</t>
-  </si>
-  <si>
-    <t>Generar Baseline 01</t>
-  </si>
-  <si>
-    <t>Carpeta Línea Base 01</t>
-  </si>
-  <si>
-    <t>Hito 01</t>
-  </si>
-  <si>
-    <t>Implementación</t>
-  </si>
-  <si>
-    <t>Codificación de requisitos funcionales de alta prioridad</t>
-  </si>
-  <si>
-    <t>Carpeta Código</t>
-  </si>
-  <si>
-    <t>Implementación de la lógica de negocio</t>
-  </si>
-  <si>
-    <t>Conexión con la base de datos</t>
-  </si>
-  <si>
-    <t>Integración de la Interfaz de Usuario</t>
-  </si>
-  <si>
-    <t>Integración de intertacciones y gráficas</t>
-  </si>
-  <si>
-    <t>Implementación del flujo de Denuncia</t>
-  </si>
-  <si>
-    <t>Implementación del seguimiento de denuncias</t>
-  </si>
-  <si>
-    <t>Optimización de la navegación y usabilidad</t>
-  </si>
-  <si>
-    <t>Adición de elementos visuales y mejora en UX</t>
-  </si>
-  <si>
-    <t>Sprint Retrospective 2</t>
-  </si>
-  <si>
-    <t>Generar Baseline 02</t>
-  </si>
-  <si>
-    <t>Carpeta Línea Base 02</t>
-  </si>
-  <si>
-    <t>Hito 02</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Pruebas de Flujo de Denuncia</t>
-  </si>
-  <si>
-    <t>Documento de Protocolo de Pruebas</t>
-  </si>
-  <si>
-    <t>Pruebas de Experiencia de Usuario</t>
-  </si>
-  <si>
-    <t>Pruebas de Funcionalidades Backend</t>
-  </si>
-  <si>
-    <t>Pruebas de Interfaz de Usuario</t>
+    <t>Pruebas de Funcionalidades</t>
+  </si>
+  <si>
+    <t>Pruebas de Interfaz de usuario</t>
   </si>
   <si>
     <t>Pruebas de Base de Datos</t>
-  </si>
-  <si>
-    <t>Adición de características adicionales</t>
-  </si>
-  <si>
-    <t>Optimizaciones de rendimiento</t>
   </si>
   <si>
     <t>Sprint Retrospective 3</t>
@@ -462,7 +495,7 @@
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="168" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -499,12 +532,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0563C1"/>
@@ -512,7 +539,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -527,14 +554,8 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,26 +570,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -584,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border/>
     <border>
       <left style="thin">
@@ -676,17 +679,11 @@
         <color rgb="FF000000"/>
       </right>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -743,6 +740,12 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,89 +756,66 @@
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="7" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="7" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1062,7 +1042,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="17.71"/>
     <col customWidth="1" min="2" max="2" width="59.57"/>
-    <col customWidth="1" min="3" max="3" width="42.43"/>
+    <col customWidth="1" min="3" max="3" width="44.86"/>
     <col customWidth="1" min="4" max="5" width="15.14"/>
     <col customWidth="1" min="6" max="6" width="24.86"/>
     <col customWidth="1" min="7" max="7" width="19.86"/>
@@ -1192,111 +1172,104 @@
     <row r="9">
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11">
-      <c r="F11" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="7"/>
-    </row>
     <row r="12">
-      <c r="A12" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="F12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="G12" s="27"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="C13" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="D13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="E13" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="F13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="G13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="H13" s="28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="27" t="s">
+      <c r="I13" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="J13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="K13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30" t="s">
+      <c r="B14" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32">
+      <c r="C14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34">
         <v>45393.0</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J14" s="34">
         <v>45398.0</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K14" s="35">
         <v>1.0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
-    </row>
     <row r="15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1305,1363 +1278,1271 @@
       <c r="D15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32">
+      <c r="E15" s="31"/>
+      <c r="F15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34">
+        <v>45393.0</v>
+      </c>
+      <c r="J15" s="34">
+        <v>45398.0</v>
+      </c>
+      <c r="K15" s="35">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34">
         <v>45399.0</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J16" s="34">
         <v>45400.0</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K16" s="35">
         <v>1.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35" t="s">
+    <row r="17">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="34">
+        <v>45403.0</v>
+      </c>
+      <c r="J17" s="38">
+        <f>I17+1</f>
+        <v>45404</v>
+      </c>
+      <c r="K17" s="35">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="36"/>
+      <c r="B18" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="32">
-        <v>45403.0</v>
-      </c>
-      <c r="J16" s="38">
-        <f>I16+1</f>
-        <v>45404</v>
-      </c>
-      <c r="K16" s="33">
+      <c r="G18" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="34">
+        <v>45404.0</v>
+      </c>
+      <c r="J18" s="34">
+        <v>45407.0</v>
+      </c>
+      <c r="K18" s="35">
         <v>1.0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="34"/>
-      <c r="B17" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="32">
-        <v>45404.0</v>
-      </c>
-      <c r="J17" s="32">
-        <v>45407.0</v>
-      </c>
-      <c r="K17" s="33">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="34"/>
-      <c r="B18" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="32">
-        <v>45404.0</v>
-      </c>
-      <c r="J18" s="32">
-        <v>45410.0</v>
-      </c>
-      <c r="K18" s="45">
-        <v>1.0</v>
-      </c>
-    </row>
     <row r="19">
-      <c r="A19" s="34"/>
-      <c r="B19" s="43" t="s">
-        <v>63</v>
+      <c r="A19" s="36"/>
+      <c r="B19" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="40"/>
+        <v>66</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>67</v>
+      </c>
       <c r="F19" s="41" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="32">
+      <c r="I19" s="34">
         <v>45404.0</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="34">
         <v>45410.0</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="35">
         <v>1.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="34"/>
-      <c r="B20" s="43" t="s">
-        <v>65</v>
+      <c r="A20" s="36"/>
+      <c r="B20" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="41" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="32">
+      <c r="I20" s="34">
         <v>45404.0</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="34">
         <v>45410.0</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="35">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="34"/>
-      <c r="B21" s="43" t="s">
-        <v>68</v>
+      <c r="A21" s="36"/>
+      <c r="B21" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="41" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="32">
+      <c r="I21" s="34">
         <v>45404.0</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="34">
         <v>45410.0</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="35">
         <v>1.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="34"/>
-      <c r="B22" s="43" t="s">
-        <v>71</v>
+      <c r="A22" s="36"/>
+      <c r="B22" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="41" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G22" s="41"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="32">
+      <c r="I22" s="34">
         <v>45404.0</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="34">
         <v>45410.0</v>
       </c>
-      <c r="K22" s="45">
+      <c r="K22" s="35">
         <v>1.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="34"/>
-      <c r="B23" s="43" t="s">
-        <v>74</v>
+      <c r="A23" s="36"/>
+      <c r="B23" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="41" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G23" s="41"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="32">
+      <c r="I23" s="34">
         <v>45404.0</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="34">
         <v>45410.0</v>
       </c>
-      <c r="K23" s="45">
+      <c r="K23" s="35">
         <v>1.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="34"/>
-      <c r="B24" s="43" t="s">
-        <v>76</v>
+      <c r="A24" s="36"/>
+      <c r="B24" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="41" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G24" s="41"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="32">
+      <c r="I24" s="34">
         <v>45404.0</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="34">
         <v>45410.0</v>
       </c>
-      <c r="K24" s="45">
+      <c r="K24" s="35">
         <v>1.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="43" t="s">
-        <v>79</v>
+      <c r="A25" s="36"/>
+      <c r="B25" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="41" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="32">
+      <c r="I25" s="34">
         <v>45404.0</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="34">
         <v>45410.0</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="35">
         <v>1.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="34"/>
-      <c r="B26" s="46" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="34">
+        <v>45404.0</v>
+      </c>
+      <c r="J26" s="34">
+        <v>45410.0</v>
+      </c>
+      <c r="K26" s="35">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="36"/>
+      <c r="B27" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="38">
+        <f>J17</f>
+        <v>45404</v>
+      </c>
+      <c r="J27" s="34">
+        <v>45410.0</v>
+      </c>
+      <c r="K27" s="35">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="36"/>
+      <c r="B28" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="38">
+        <f>J27</f>
+        <v>45410</v>
+      </c>
+      <c r="J28" s="38">
+        <f>I28+5</f>
+        <v>45415</v>
+      </c>
+      <c r="K28" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="36"/>
+      <c r="B29" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="38">
-        <f>J16</f>
-        <v>45404</v>
-      </c>
-      <c r="J26" s="32">
-        <v>45410.0</v>
-      </c>
-      <c r="K26" s="45">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="34"/>
-      <c r="B27" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="38">
-        <f>J26</f>
-        <v>45410</v>
-      </c>
-      <c r="J27" s="38">
-        <f>I27+5</f>
-        <v>45415</v>
-      </c>
-      <c r="K27" s="52">
+      <c r="H29" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="38">
+        <f>J27+1</f>
+        <v>45411</v>
+      </c>
+      <c r="J29" s="38">
+        <f t="shared" ref="J29:J30" si="1">I29+3</f>
+        <v>45414</v>
+      </c>
+      <c r="K29" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="34"/>
-      <c r="B28" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="38">
-        <f>J26+1</f>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="36"/>
+      <c r="B30" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="38">
+        <f>J27+1</f>
         <v>45411</v>
       </c>
-      <c r="J28" s="38">
-        <f t="shared" ref="J28:J29" si="1">I28+3</f>
-        <v>45414</v>
-      </c>
-      <c r="K28" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="I29" s="38">
-        <f>J26+1</f>
-        <v>45411</v>
-      </c>
-      <c r="J29" s="38">
+      <c r="J30" s="38">
         <f t="shared" si="1"/>
         <v>45414</v>
       </c>
-      <c r="K29" s="52">
+      <c r="K30" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="38">
-        <f>J26+1</f>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="38">
+        <f>J27+1</f>
         <v>45411</v>
       </c>
-      <c r="J30" s="38">
-        <f>I30+4</f>
+      <c r="J31" s="38">
+        <f>I31+4</f>
         <v>45415</v>
       </c>
-      <c r="K30" s="52">
+      <c r="K31" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="36" t="s">
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="36"/>
+      <c r="B32" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="38">
+        <f>J31+3</f>
+        <v>45418</v>
+      </c>
+      <c r="J32" s="38">
+        <f>I32+3</f>
+        <v>45421</v>
+      </c>
+      <c r="K32" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="36"/>
+      <c r="B33" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="38">
-        <f>J30+3</f>
-        <v>45418</v>
-      </c>
-      <c r="J31" s="38">
-        <f>I31+3</f>
+      <c r="D33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="38">
+        <f t="shared" ref="I33:I34" si="2">J32</f>
         <v>45421</v>
       </c>
-      <c r="K31" s="52">
+      <c r="J33" s="38">
+        <f t="shared" ref="J33:J34" si="3">I33</f>
+        <v>45421</v>
+      </c>
+      <c r="K33" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="38">
-        <f t="shared" ref="I32:I33" si="2">J31</f>
-        <v>45421</v>
-      </c>
-      <c r="J32" s="38">
-        <f t="shared" ref="J32:J33" si="3">I32</f>
-        <v>45421</v>
-      </c>
-      <c r="K32" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="38">
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="45"/>
+      <c r="B34" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="38">
         <f t="shared" si="2"/>
         <v>45421</v>
       </c>
-      <c r="J33" s="38">
+      <c r="J34" s="38">
         <f t="shared" si="3"/>
         <v>45421</v>
       </c>
-      <c r="K33" s="52">
+      <c r="K34" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-    </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="36" t="s">
+      <c r="A35" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="38">
-        <f>J33+1</f>
+      <c r="E36" s="10"/>
+      <c r="F36" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="38">
+        <f>J34+1</f>
         <v>45422</v>
       </c>
-      <c r="J35" s="38">
-        <f>I35+6</f>
+      <c r="J36" s="38">
+        <f>I36+6</f>
         <v>45428</v>
       </c>
-      <c r="K35" s="52">
+      <c r="K36" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I36" s="38">
-        <f>J33+1</f>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="36"/>
+      <c r="B37" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="38">
+        <f>J34+1</f>
         <v>45422</v>
       </c>
-      <c r="J36" s="38">
-        <f>I36+10</f>
+      <c r="J37" s="38">
+        <f>I37+10</f>
         <v>45432</v>
       </c>
-      <c r="K36" s="52">
+      <c r="K37" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="38">
-        <f>I35+3</f>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="38">
+        <f>I36+3</f>
         <v>45425</v>
-      </c>
-      <c r="J37" s="38">
-        <f>I37+4</f>
-        <v>45429</v>
-      </c>
-      <c r="K37" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="38">
-        <f>J33+1</f>
-        <v>45422</v>
       </c>
       <c r="J38" s="38">
         <f>I38+4</f>
+        <v>45429</v>
+      </c>
+      <c r="K38" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="36"/>
+      <c r="B39" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="32"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="38">
+        <f>J34+1</f>
+        <v>45422</v>
+      </c>
+      <c r="J39" s="38">
+        <f>I39+4</f>
         <v>45426</v>
       </c>
-      <c r="K38" s="52">
+      <c r="K39" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="34"/>
-      <c r="B39" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="36" t="s">
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="36"/>
+      <c r="B40" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H39" s="31"/>
-      <c r="I39" s="38">
-        <f t="shared" ref="I39:I40" si="4">J38</f>
+      <c r="E40" s="10"/>
+      <c r="F40" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="38">
+        <f t="shared" ref="I40:I41" si="4">J39</f>
         <v>45426</v>
       </c>
-      <c r="J39" s="38">
-        <f>I39+5</f>
+      <c r="J40" s="38">
+        <f>I40+5</f>
         <v>45431</v>
       </c>
-      <c r="K39" s="52">
+      <c r="K40" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="38">
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="36"/>
+      <c r="B41" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="38">
         <f t="shared" si="4"/>
         <v>45431</v>
       </c>
-      <c r="J40" s="38">
-        <f>I40+7</f>
+      <c r="J41" s="38">
+        <f>I41+7</f>
         <v>45438</v>
       </c>
-      <c r="K40" s="52">
+      <c r="K41" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="34"/>
-      <c r="B41" s="58" t="s">
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="36"/>
+      <c r="B42" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="32"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="38">
+        <f>I41+3</f>
+        <v>45434</v>
+      </c>
+      <c r="J42" s="38">
+        <f>I42+6</f>
+        <v>45440</v>
+      </c>
+      <c r="K42" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="36"/>
+      <c r="B43" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="38">
+        <f>J42+1</f>
+        <v>45441</v>
+      </c>
+      <c r="J43" s="38">
+        <f>I43+4</f>
+        <v>45445</v>
+      </c>
+      <c r="K43" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="36"/>
+      <c r="B44" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="38">
+        <f>J43+1</f>
+        <v>45446</v>
+      </c>
+      <c r="J44" s="38">
+        <f>I44+2</f>
+        <v>45448</v>
+      </c>
+      <c r="K44" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="45"/>
+      <c r="B45" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="46"/>
+      <c r="F45" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="51">
+        <f>J44+1</f>
+        <v>45449</v>
+      </c>
+      <c r="J45" s="51">
+        <f>I45</f>
+        <v>45449</v>
+      </c>
+      <c r="K45" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="50"/>
+      <c r="I47" s="51">
+        <f>J45+1</f>
+        <v>45450</v>
+      </c>
+      <c r="J47" s="51">
+        <f>I47</f>
+        <v>45450</v>
+      </c>
+      <c r="K47" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="36"/>
+      <c r="B48" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="50"/>
+      <c r="I48" s="51">
+        <f t="shared" ref="I48:I50" si="5">J47+1</f>
+        <v>45451</v>
+      </c>
+      <c r="J48" s="51">
+        <f>I48+1</f>
+        <v>45452</v>
+      </c>
+      <c r="K48" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="36"/>
+      <c r="B49" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="G49" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I49" s="51">
+        <f t="shared" si="5"/>
+        <v>45453</v>
+      </c>
+      <c r="J49" s="51">
+        <f>I49</f>
+        <v>45453</v>
+      </c>
+      <c r="K49" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="36"/>
+      <c r="B50" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="50"/>
+      <c r="I50" s="51">
+        <f t="shared" si="5"/>
+        <v>45454</v>
+      </c>
+      <c r="J50" s="51">
+        <f>I50+1</f>
+        <v>45455</v>
+      </c>
+      <c r="K50" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="36"/>
+      <c r="B51" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="38">
-        <f>I40+3</f>
-        <v>45434</v>
-      </c>
-      <c r="J41" s="38">
-        <f>I41+6</f>
-        <v>45440</v>
-      </c>
-      <c r="K41" s="52">
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="51">
+        <f>J50+1</f>
+        <v>45456</v>
+      </c>
+      <c r="J51" s="51">
+        <f>I51+2</f>
+        <v>45458</v>
+      </c>
+      <c r="K51" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="10" t="s">
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="45"/>
+      <c r="B52" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="46"/>
+      <c r="F52" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="38">
+        <f>J51+1</f>
+        <v>45459</v>
+      </c>
+      <c r="J52" s="38">
+        <f>I52</f>
+        <v>45459</v>
+      </c>
+      <c r="K52" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I54" s="38">
+        <f>J52</f>
+        <v>45459</v>
+      </c>
+      <c r="J54" s="38">
+        <f t="shared" ref="J54:J55" si="6">I54+2</f>
+        <v>45461</v>
+      </c>
+      <c r="K54" s="44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="36"/>
+      <c r="B55" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I42" s="38">
-        <f>J41+1</f>
-        <v>45441</v>
-      </c>
-      <c r="J42" s="38">
-        <f>I42+4</f>
-        <v>45445</v>
-      </c>
-      <c r="K42" s="52">
+      <c r="G55" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="38">
+        <f>J52</f>
+        <v>45459</v>
+      </c>
+      <c r="J55" s="38">
+        <f t="shared" si="6"/>
+        <v>45461</v>
+      </c>
+      <c r="K55" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" s="31"/>
-      <c r="I43" s="38">
-        <f>J41</f>
-        <v>45440</v>
-      </c>
-      <c r="J43" s="38">
-        <f t="shared" ref="J43:J44" si="5">I43+2</f>
-        <v>45442</v>
-      </c>
-      <c r="K43" s="52">
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="36"/>
+      <c r="B56" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="38">
+        <f t="shared" ref="I56:I57" si="7">J55+1</f>
+        <v>45462</v>
+      </c>
+      <c r="J56" s="38">
+        <f>I56+1</f>
+        <v>45463</v>
+      </c>
+      <c r="K56" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="38">
-        <f t="shared" ref="I44:I45" si="6">J43+1</f>
-        <v>45443</v>
-      </c>
-      <c r="J44" s="38">
-        <f t="shared" si="5"/>
-        <v>45445</v>
-      </c>
-      <c r="K44" s="52">
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="45"/>
+      <c r="B57" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="38">
+        <f t="shared" si="7"/>
+        <v>45464</v>
+      </c>
+      <c r="J57" s="38">
+        <f>I57+3</f>
+        <v>45467</v>
+      </c>
+      <c r="K57" s="44">
         <v>0.0</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="53"/>
-      <c r="B45" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="60">
-        <f t="shared" si="6"/>
-        <v>45446</v>
-      </c>
-      <c r="J45" s="60">
-        <f>I45</f>
-        <v>45446</v>
-      </c>
-      <c r="K45" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="62">
-        <f>J45+1</f>
-        <v>45447</v>
-      </c>
-      <c r="J47" s="62">
-        <f t="shared" ref="J47:J51" si="7">I47</f>
-        <v>45447</v>
-      </c>
-      <c r="K47" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="34"/>
-      <c r="B48" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" s="61"/>
-      <c r="I48" s="62">
-        <f t="shared" ref="I48:I51" si="8">J47+1</f>
-        <v>45448</v>
-      </c>
-      <c r="J48" s="62">
-        <f t="shared" si="7"/>
-        <v>45448</v>
-      </c>
-      <c r="K48" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="34"/>
-      <c r="B49" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="62">
-        <f t="shared" si="8"/>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="C60" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="56">
+        <f>J34</f>
+        <v>45421</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="C61" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="57">
+        <f>J45</f>
         <v>45449</v>
       </c>
-      <c r="J49" s="62">
-        <f t="shared" si="7"/>
-        <v>45449</v>
-      </c>
-      <c r="K49" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="34"/>
-      <c r="B50" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="61"/>
-      <c r="I50" s="62">
-        <f t="shared" si="8"/>
-        <v>45450</v>
-      </c>
-      <c r="J50" s="62">
-        <f t="shared" si="7"/>
-        <v>45450</v>
-      </c>
-      <c r="K50" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="34"/>
-      <c r="B51" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H51" s="61"/>
-      <c r="I51" s="62">
-        <f t="shared" si="8"/>
-        <v>45451</v>
-      </c>
-      <c r="J51" s="62">
-        <f t="shared" si="7"/>
-        <v>45451</v>
-      </c>
-      <c r="K51" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="34"/>
-      <c r="B52" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G52" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I52" s="38">
-        <f>J49+1</f>
-        <v>45450</v>
-      </c>
-      <c r="J52" s="38">
-        <f>I52+3</f>
-        <v>45453</v>
-      </c>
-      <c r="K52" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="34"/>
-      <c r="B53" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="I53" s="62">
-        <f>J50</f>
-        <v>45450</v>
-      </c>
-      <c r="J53" s="62">
-        <f t="shared" ref="J53:J54" si="9">I53+2</f>
-        <v>45452</v>
-      </c>
-      <c r="K53" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="34"/>
-      <c r="B54" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="62">
-        <f t="shared" ref="I54:I55" si="10">J53+1</f>
-        <v>45453</v>
-      </c>
-      <c r="J54" s="62">
-        <f t="shared" si="9"/>
-        <v>45455</v>
-      </c>
-      <c r="K54" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="53"/>
-      <c r="B55" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="56"/>
-      <c r="F55" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="38">
-        <f t="shared" si="10"/>
-        <v>45456</v>
-      </c>
-      <c r="J55" s="38">
-        <f>I55</f>
-        <v>45456</v>
-      </c>
-      <c r="K55" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="H57" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="I57" s="38">
-        <f>J55</f>
-        <v>45456</v>
-      </c>
-      <c r="J57" s="38">
-        <f t="shared" ref="J57:J58" si="11">I57+2</f>
-        <v>45458</v>
-      </c>
-      <c r="K57" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="34"/>
-      <c r="B58" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G58" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="H58" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="I58" s="38">
-        <f>J55</f>
-        <v>45456</v>
-      </c>
-      <c r="J58" s="38">
-        <f t="shared" si="11"/>
-        <v>45458</v>
-      </c>
-      <c r="K58" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="34"/>
-      <c r="B59" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="38">
-        <f t="shared" ref="I59:I60" si="12">J58+1</f>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="C62" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="57">
+        <f>J52</f>
         <v>45459</v>
       </c>
-      <c r="J59" s="38">
-        <f>I59+1</f>
-        <v>45460</v>
-      </c>
-      <c r="K59" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="53"/>
-      <c r="B60" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="38">
-        <f t="shared" si="12"/>
-        <v>45461</v>
-      </c>
-      <c r="J60" s="38">
-        <f>I60+3</f>
-        <v>45464</v>
-      </c>
-      <c r="K60" s="52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1"/>
+    </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="65">
-        <f>J33</f>
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="D64" s="66">
-        <f>J45</f>
-        <v>45446</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" s="66">
-        <f>J55</f>
-        <v>45456</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" s="26">
+      <c r="C63" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="28">
         <f>C8-C7</f>
         <v>63</v>
       </c>
     </row>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1"/>
@@ -3601,11 +3482,8 @@
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
@@ -3613,24 +3491,25 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A14:A34"/>
+    <mergeCell ref="A35:H35"/>
     <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A13:A33"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A36:A45"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F13:F15 F16:H16 F17:F25 F26:G27 F28:H29 F30 F31:H31 F32:F33 F35:H36 F37:G41 F42:H42 F43:G43 F44:F45 F47 F48:G48 F49 F50:G51 F52:H53 F54:F55 F57:H58 F59:F60">
-      <formula1>"Equipo de desarrollo,Castillo/JP,Lipa/AS,Velarde/PF,Velarde/DBA,Montes/PB,Cueva/PF,Chaco/UX,Castillo/QA,Benites/PF"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F14 F15:G15 F16:F28 F29:H30 F31 F32:H32 F33:F34 F36:F45 F47:G48 F49:H49 F50:G50 F51:F52 F54:H55 F56:F57">
+      <formula1>"Equipo de desarrollo,Castillo/JP,Lipa/AS,Velarde/PF,Velarde/DBA,Montes/PB,Cueva/PF,Chaco/UX,Castillo/QA,Benites/PF,Cancio/AF"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C3"/>
-    <hyperlink r:id="rId2" ref="E18"/>
+    <hyperlink r:id="rId2" ref="E19"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Desarrollo/RP/Gestion/RP-CP.xlsx
+++ b/Desarrollo/RP/Gestion/RP-CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amce\Desktop\Reporta-PE\Desarrollo\RP\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F956F4BC-9580-42B7-8287-9D27496CF52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D586B09-8F65-4C87-B75A-CA8C97AD0634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -811,11 +811,20 @@
     <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,15 +835,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:K1005"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1071,18 +1071,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
@@ -1098,10 +1098,10 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="39"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1116,10 +1116,10 @@
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1134,10 +1134,10 @@
       <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1152,10 +1152,10 @@
       <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1188,10 +1188,10 @@
       <c r="F8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="44"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1202,10 +1202,10 @@
       <c r="F9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="44"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1216,20 +1216,20 @@
       <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="39"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
@@ -1267,7 +1267,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -1295,7 +1295,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="17" t="s">
         <v>49</v>
       </c>
@@ -1324,7 +1324,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="17" t="s">
         <v>53</v>
       </c>
@@ -1351,7 +1351,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="17" t="s">
         <v>57</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="23" t="s">
         <v>61</v>
       </c>
@@ -1406,7 +1406,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="23" t="s">
         <v>64</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="23" t="s">
         <v>69</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="23" t="s">
         <v>72</v>
       </c>
@@ -1489,7 +1489,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="23" t="s">
         <v>76</v>
       </c>
@@ -1516,7 +1516,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="23" t="s">
         <v>79</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="23" t="s">
         <v>83</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="23" t="s">
         <v>87</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="23" t="s">
         <v>90</v>
       </c>
@@ -1624,7 +1624,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="17" t="s">
         <v>94</v>
       </c>
@@ -1652,7 +1652,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="17" t="s">
         <v>95</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="17" t="s">
         <v>96</v>
       </c>
@@ -1714,7 +1714,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="17" t="s">
         <v>99</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="17" t="s">
         <v>102</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="17" t="s">
         <v>105</v>
       </c>
@@ -1809,7 +1809,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="17" t="s">
         <v>108</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>109</v>
       </c>
@@ -1867,22 +1867,22 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="45" t="s">
         <v>112</v>
       </c>
       <c r="B36" s="17" t="s">
@@ -1913,7 +1913,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="17" t="s">
         <v>115</v>
       </c>
@@ -1942,7 +1942,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="17" t="s">
         <v>116</v>
       </c>
@@ -1971,7 +1971,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="17" t="s">
         <v>117</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="17" t="s">
         <v>118</v>
       </c>
@@ -2029,7 +2029,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="17" t="s">
         <v>119</v>
       </c>
@@ -2058,7 +2058,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="17" t="s">
         <v>120</v>
       </c>
@@ -2087,7 +2087,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="17" t="s">
         <v>121</v>
       </c>
@@ -2116,7 +2116,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="17" t="s">
         <v>122</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="28" t="s">
         <v>123</v>
       </c>
@@ -2174,22 +2174,22 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="39"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="40"/>
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="45" t="s">
         <v>126</v>
       </c>
       <c r="B47" s="17" t="s">
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="17" t="s">
         <v>131</v>
       </c>
@@ -2253,7 +2253,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="33" t="s">
         <v>132</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="33" t="s">
         <v>133</v>
       </c>
@@ -2317,7 +2317,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="17" t="s">
         <v>134</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="28" t="s">
         <v>135</v>
       </c>
@@ -2375,22 +2375,22 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="39"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="40"/>
       <c r="I53" s="30"/>
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="45" t="s">
         <v>138</v>
       </c>
       <c r="B54" s="17" t="s">
@@ -2425,7 +2425,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="17" t="s">
         <v>142</v>
       </c>
@@ -2458,7 +2458,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="17" t="s">
         <v>143</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="17" t="s">
         <v>144</v>
       </c>
@@ -2516,16 +2516,16 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="39"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="30"/>
       <c r="J58" s="30"/>
       <c r="K58" s="30"/>
@@ -3511,11 +3511,6 @@
     <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A58:H58"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A36:A45"/>
@@ -3528,6 +3523,11 @@
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A53:H53"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F14 F15:G15 F16:F28 F29:H30 F31 F32:H32 F33:F34 F36:F45 F47:G48 F49:H49 F50:G50 F51:F52 F54:H55 F56:F57" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Desarrollo/RP/Gestion/RP-CP.xlsx
+++ b/Desarrollo/RP/Gestion/RP-CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amce\Desktop\Reporta-PE\Desarrollo\RP\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D586B09-8F65-4C87-B75A-CA8C97AD0634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F30633-F65D-46E8-BC8F-3B56166D7DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -811,20 +811,11 @@
     <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,6 +826,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1071,18 +1071,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
@@ -1098,10 +1098,10 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1116,10 +1116,10 @@
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1134,10 +1134,10 @@
       <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1152,10 +1152,10 @@
       <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1188,10 +1188,10 @@
       <c r="F8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="49"/>
+      <c r="H8" s="44"/>
       <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1202,10 +1202,10 @@
       <c r="F9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="49"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1216,20 +1216,20 @@
       <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="40"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
@@ -1267,7 +1267,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="40" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -1295,7 +1295,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="17" t="s">
         <v>49</v>
       </c>
@@ -1324,7 +1324,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="17" t="s">
         <v>53</v>
       </c>
@@ -1351,7 +1351,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="17" t="s">
         <v>57</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="23" t="s">
         <v>61</v>
       </c>
@@ -1406,7 +1406,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="23" t="s">
         <v>64</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="23" t="s">
         <v>69</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="23" t="s">
         <v>72</v>
       </c>
@@ -1489,7 +1489,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="23" t="s">
         <v>76</v>
       </c>
@@ -1516,7 +1516,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="23" t="s">
         <v>79</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="23" t="s">
         <v>83</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="23" t="s">
         <v>87</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="23" t="s">
         <v>90</v>
       </c>
@@ -1624,7 +1624,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="17" t="s">
         <v>94</v>
       </c>
@@ -1652,7 +1652,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="17" t="s">
         <v>95</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="17" t="s">
         <v>96</v>
       </c>
@@ -1714,7 +1714,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="17" t="s">
         <v>99</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="17" t="s">
         <v>102</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="17" t="s">
         <v>105</v>
       </c>
@@ -1809,7 +1809,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="17" t="s">
         <v>108</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="28" t="s">
         <v>109</v>
       </c>
@@ -1867,22 +1867,22 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="40"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="40" t="s">
         <v>112</v>
       </c>
       <c r="B36" s="17" t="s">
@@ -1913,7 +1913,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="17" t="s">
         <v>115</v>
       </c>
@@ -1942,7 +1942,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="17" t="s">
         <v>116</v>
       </c>
@@ -1971,7 +1971,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="17" t="s">
         <v>117</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="46"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="17" t="s">
         <v>118</v>
       </c>
@@ -2029,7 +2029,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="46"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="17" t="s">
         <v>119</v>
       </c>
@@ -2058,7 +2058,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="17" t="s">
         <v>120</v>
       </c>
@@ -2087,7 +2087,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="46"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="17" t="s">
         <v>121</v>
       </c>
@@ -2116,7 +2116,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="17" t="s">
         <v>122</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="28" t="s">
         <v>123</v>
       </c>
@@ -2174,22 +2174,22 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="40"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="40" t="s">
         <v>126</v>
       </c>
       <c r="B47" s="17" t="s">
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="46"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="17" t="s">
         <v>131</v>
       </c>
@@ -2253,7 +2253,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="46"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="33" t="s">
         <v>132</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="46"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="33" t="s">
         <v>133</v>
       </c>
@@ -2317,7 +2317,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="46"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="17" t="s">
         <v>134</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="47"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="28" t="s">
         <v>135</v>
       </c>
@@ -2375,22 +2375,22 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="40"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="39"/>
       <c r="I53" s="30"/>
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="40" t="s">
         <v>138</v>
       </c>
       <c r="B54" s="17" t="s">
@@ -2425,7 +2425,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="46"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="17" t="s">
         <v>142</v>
       </c>
@@ -2458,7 +2458,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="46"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="17" t="s">
         <v>143</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="17" t="s">
         <v>144</v>
       </c>
@@ -2516,16 +2516,16 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="40"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="39"/>
       <c r="I58" s="30"/>
       <c r="J58" s="30"/>
       <c r="K58" s="30"/>
@@ -3511,6 +3511,11 @@
     <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A58:H58"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A36:A45"/>
@@ -3523,11 +3528,6 @@
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A53:H53"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F14 F15:G15 F16:F28 F29:H30 F31 F32:H32 F33:F34 F36:F45 F47:G48 F49:H49 F50:G50 F51:F52 F54:H55 F56:F57" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Desarrollo/RP/Gestion/RP-CP.xlsx
+++ b/Desarrollo/RP/Gestion/RP-CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amce\Desktop\Reporta-PE\Desarrollo\RP\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F30633-F65D-46E8-BC8F-3B56166D7DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EEA600-FD0A-4F70-A7A9-F2A90FD161E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -811,11 +811,20 @@
     <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,15 +835,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1071,18 +1071,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
@@ -1098,10 +1098,10 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="39"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1116,10 +1116,10 @@
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1134,10 +1134,10 @@
       <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1152,10 +1152,10 @@
       <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1188,10 +1188,10 @@
       <c r="F8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="44"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1202,10 +1202,10 @@
       <c r="F9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="44"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1216,20 +1216,20 @@
       <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="39"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
@@ -1267,7 +1267,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -1295,7 +1295,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="17" t="s">
         <v>49</v>
       </c>
@@ -1324,7 +1324,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="17" t="s">
         <v>53</v>
       </c>
@@ -1351,7 +1351,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="17" t="s">
         <v>57</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="23" t="s">
         <v>61</v>
       </c>
@@ -1406,7 +1406,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="23" t="s">
         <v>64</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="23" t="s">
         <v>69</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="23" t="s">
         <v>72</v>
       </c>
@@ -1489,7 +1489,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="23" t="s">
         <v>76</v>
       </c>
@@ -1516,7 +1516,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="23" t="s">
         <v>79</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="23" t="s">
         <v>83</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="23" t="s">
         <v>87</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="23" t="s">
         <v>90</v>
       </c>
@@ -1624,7 +1624,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="17" t="s">
         <v>94</v>
       </c>
@@ -1652,7 +1652,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="17" t="s">
         <v>95</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="17" t="s">
         <v>96</v>
       </c>
@@ -1714,7 +1714,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="17" t="s">
         <v>99</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="17" t="s">
         <v>102</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="17" t="s">
         <v>105</v>
       </c>
@@ -1809,7 +1809,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="17" t="s">
         <v>108</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>109</v>
       </c>
@@ -1867,22 +1867,22 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="45" t="s">
         <v>112</v>
       </c>
       <c r="B36" s="17" t="s">
@@ -1913,7 +1913,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="17" t="s">
         <v>115</v>
       </c>
@@ -1942,7 +1942,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="17" t="s">
         <v>116</v>
       </c>
@@ -1971,7 +1971,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="17" t="s">
         <v>117</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="17" t="s">
         <v>118</v>
       </c>
@@ -2029,7 +2029,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="17" t="s">
         <v>119</v>
       </c>
@@ -2058,7 +2058,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="17" t="s">
         <v>120</v>
       </c>
@@ -2087,7 +2087,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="17" t="s">
         <v>121</v>
       </c>
@@ -2116,7 +2116,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="17" t="s">
         <v>122</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="28" t="s">
         <v>123</v>
       </c>
@@ -2174,22 +2174,22 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="39"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="40"/>
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="45" t="s">
         <v>126</v>
       </c>
       <c r="B47" s="17" t="s">
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="17" t="s">
         <v>131</v>
       </c>
@@ -2253,7 +2253,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="33" t="s">
         <v>132</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="33" t="s">
         <v>133</v>
       </c>
@@ -2317,7 +2317,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="17" t="s">
         <v>134</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="28" t="s">
         <v>135</v>
       </c>
@@ -2375,22 +2375,22 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="39"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="40"/>
       <c r="I53" s="30"/>
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="45" t="s">
         <v>138</v>
       </c>
       <c r="B54" s="17" t="s">
@@ -2425,7 +2425,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="17" t="s">
         <v>142</v>
       </c>
@@ -2458,7 +2458,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="17" t="s">
         <v>143</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="17" t="s">
         <v>144</v>
       </c>
@@ -2516,16 +2516,16 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="39"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="30"/>
       <c r="J58" s="30"/>
       <c r="K58" s="30"/>
@@ -3511,11 +3511,6 @@
     <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A58:H58"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A36:A45"/>
@@ -3528,6 +3523,11 @@
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A53:H53"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F14 F15:G15 F16:F28 F29:H30 F31 F32:H32 F33:F34 F36:F45 F47:G48 F49:H49 F50:G50 F51:F52 F54:H55 F56:F57" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Desarrollo/RP/Gestion/RP-CP.xlsx
+++ b/Desarrollo/RP/Gestion/RP-CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amce\Desktop\Reporta-PE\Desarrollo\RP\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EEA600-FD0A-4F70-A7A9-F2A90FD161E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEAB1B6-CF8B-4FF5-8A22-81143AF517E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -811,20 +811,11 @@
     <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,6 +826,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1071,18 +1071,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
@@ -1098,10 +1098,10 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1116,10 +1116,10 @@
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1134,10 +1134,10 @@
       <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1152,10 +1152,10 @@
       <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1188,10 +1188,10 @@
       <c r="F8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="49"/>
+      <c r="H8" s="44"/>
       <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1202,10 +1202,10 @@
       <c r="F9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="49"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1216,20 +1216,20 @@
       <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="40"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
@@ -1267,7 +1267,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="40" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -1295,7 +1295,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="17" t="s">
         <v>49</v>
       </c>
@@ -1324,7 +1324,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="17" t="s">
         <v>53</v>
       </c>
@@ -1351,7 +1351,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="17" t="s">
         <v>57</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="23" t="s">
         <v>61</v>
       </c>
@@ -1406,7 +1406,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="23" t="s">
         <v>64</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="23" t="s">
         <v>69</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="23" t="s">
         <v>72</v>
       </c>
@@ -1489,7 +1489,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="23" t="s">
         <v>76</v>
       </c>
@@ -1516,7 +1516,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="23" t="s">
         <v>79</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="23" t="s">
         <v>83</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="23" t="s">
         <v>87</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="23" t="s">
         <v>90</v>
       </c>
@@ -1624,7 +1624,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="17" t="s">
         <v>94</v>
       </c>
@@ -1652,7 +1652,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="17" t="s">
         <v>95</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="17" t="s">
         <v>96</v>
       </c>
@@ -1710,11 +1710,11 @@
         <v>45414</v>
       </c>
       <c r="K29" s="22">
-        <v>0.33</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="17" t="s">
         <v>99</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="17" t="s">
         <v>102</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="17" t="s">
         <v>105</v>
       </c>
@@ -1809,7 +1809,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="17" t="s">
         <v>108</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="28" t="s">
         <v>109</v>
       </c>
@@ -1867,22 +1867,22 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="40"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="40" t="s">
         <v>112</v>
       </c>
       <c r="B36" s="17" t="s">
@@ -1913,7 +1913,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="17" t="s">
         <v>115</v>
       </c>
@@ -1942,7 +1942,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="17" t="s">
         <v>116</v>
       </c>
@@ -1971,7 +1971,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="17" t="s">
         <v>117</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="46"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="17" t="s">
         <v>118</v>
       </c>
@@ -2029,7 +2029,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="46"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="17" t="s">
         <v>119</v>
       </c>
@@ -2058,7 +2058,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="17" t="s">
         <v>120</v>
       </c>
@@ -2087,7 +2087,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="46"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="17" t="s">
         <v>121</v>
       </c>
@@ -2116,7 +2116,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="17" t="s">
         <v>122</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="28" t="s">
         <v>123</v>
       </c>
@@ -2174,22 +2174,22 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="40"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="40" t="s">
         <v>126</v>
       </c>
       <c r="B47" s="17" t="s">
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="46"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="17" t="s">
         <v>131</v>
       </c>
@@ -2253,7 +2253,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="46"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="33" t="s">
         <v>132</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="46"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="33" t="s">
         <v>133</v>
       </c>
@@ -2317,7 +2317,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="46"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="17" t="s">
         <v>134</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="47"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="28" t="s">
         <v>135</v>
       </c>
@@ -2375,22 +2375,22 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="40"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="39"/>
       <c r="I53" s="30"/>
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="40" t="s">
         <v>138</v>
       </c>
       <c r="B54" s="17" t="s">
@@ -2425,7 +2425,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="46"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="17" t="s">
         <v>142</v>
       </c>
@@ -2458,7 +2458,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="46"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="17" t="s">
         <v>143</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="17" t="s">
         <v>144</v>
       </c>
@@ -2516,16 +2516,16 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="40"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="39"/>
       <c r="I58" s="30"/>
       <c r="J58" s="30"/>
       <c r="K58" s="30"/>
@@ -3511,6 +3511,11 @@
     <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A58:H58"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A36:A45"/>
@@ -3523,11 +3528,6 @@
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A53:H53"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F14 F15:G15 F16:F28 F29:H30 F31 F32:H32 F33:F34 F36:F45 F47:G48 F49:H49 F50:G50 F51:F52 F54:H55 F56:F57" xr:uid="{00000000-0002-0000-0000-000000000000}">
